--- a/data/cellRAW/STscorei7.xlsx
+++ b/data/cellRAW/STscorei7.xlsx
@@ -482,19 +482,19 @@
         <v>796.1855670103092</v>
       </c>
       <c r="E2" t="n">
-        <v>1058.971181556196</v>
+        <v>931.233918128655</v>
       </c>
       <c r="F2" t="n">
-        <v>975.2593516209477</v>
+        <v>1124.22972972973</v>
       </c>
       <c r="G2" t="n">
-        <v>1053.978835978836</v>
+        <v>1181.981735159817</v>
       </c>
       <c r="H2" t="n">
-        <v>1143.712250712251</v>
+        <v>1214.604494382022</v>
       </c>
       <c r="I2" t="n">
-        <v>1150.941860465116</v>
+        <v>1248.032258064516</v>
       </c>
       <c r="J2" t="n">
         <v>1294.144295302013</v>
